--- a/INTLINE/data/924/WSA/WSA.xlsx
+++ b/INTLINE/data/924/WSA/WSA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:OB2"/>
+  <dimension ref="A1:OC2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2314,15 +2314,20 @@
       </c>
       <c r="NZ1" s="1" t="inlineStr">
         <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="OA1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="OA1" s="1" t="inlineStr">
+      <c r="OB1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="OB1" s="1" t="inlineStr">
+      <c r="OC1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -3460,10 +3465,10 @@
         <v>92478.5</v>
       </c>
       <c r="NM2" t="n">
-        <v>91943.89999999999</v>
+        <v>92217.7</v>
       </c>
       <c r="NN2" t="n">
-        <v>83046.10000000001</v>
+        <v>83293.39999999999</v>
       </c>
       <c r="NO2" t="n">
         <v>94021</v>
@@ -3496,19 +3501,22 @@
         <v>86190</v>
       </c>
       <c r="NY2" t="n">
-        <v>81685.39999999999</v>
-      </c>
-      <c r="NZ2" t="inlineStr">
+        <v>82995.89999999999</v>
+      </c>
+      <c r="NZ2" t="n">
+        <v>74964.10000000001</v>
+      </c>
+      <c r="OA2" t="inlineStr">
         <is>
           <t>IPST0001</t>
         </is>
       </c>
-      <c r="OA2" t="inlineStr">
+      <c r="OB2" t="inlineStr">
         <is>
           <t>Production of Crude Steel</t>
         </is>
       </c>
-      <c r="OB2" t="inlineStr">
+      <c r="OC2" t="inlineStr">
         <is>
           <t>Thousands of Metric Tons</t>
         </is>
